--- a/chooseschool/excel/2022江南大学.xlsx
+++ b/chooseschool/excel/2022江南大学.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjy\Desktop\cxm\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjy\Desktop\chooseschool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA3A26B-DBA8-4C59-8D5C-259DA1C574C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE3D734-C529-4D2D-A5BE-15CE78F6DD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="231">
   <si>
     <t>商学院</t>
   </si>
@@ -723,6 +723,10 @@
   </si>
   <si>
     <t>吴璐平</t>
+  </si>
+  <si>
+    <t>学费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -732,7 +736,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -765,6 +769,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -784,16 +794,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -811,11 +821,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1247,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1283,7 @@
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
         <f>[1]Page1!A1</f>
         <v>学院</v>
@@ -1293,8 +1312,11 @@
         <f>[1]Page1!G1</f>
         <v>录取成绩</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,17 +1329,20 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>174</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>168.8</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>342.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,17 +1355,20 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>200</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>171.8</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>371.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,17 +1381,20 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>171</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>159.6</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>330.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,17 +1407,20 @@
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>174</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>158.4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>332.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,17 +1433,20 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>194</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>158.19999999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>352.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,17 +1459,20 @@
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>171</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>170.8</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>341.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,17 +1485,20 @@
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>181</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>162</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>343</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,17 +1511,20 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>193</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>163.19999999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>356.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,17 +1537,20 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>173</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>152.19999999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>325.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,17 +1563,20 @@
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>185</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>173.8</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>358.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,17 +1589,20 @@
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>228</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>150.4</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>378.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,17 +1615,20 @@
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>183</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>170.6</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>353.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,17 +1641,20 @@
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>174</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>165.8</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>339.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,17 +1667,20 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>194</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>159.4</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>353.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,17 +1693,20 @@
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>180</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>159.4</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>339.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1652,17 +1719,20 @@
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>193</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>172.8</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>365.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,17 +1745,20 @@
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>171</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>167.4</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>338.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,17 +1771,20 @@
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>182</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>160.6</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>342.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1721,17 +1797,20 @@
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>180</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>177</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,17 +1823,20 @@
       <c r="D21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>193</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>166.2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>359.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1767,17 +1849,20 @@
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>197</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>157.19999999999999</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>354.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,17 +1875,20 @@
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>171</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>159.4</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>330.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1813,17 +1901,20 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>200</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>154.19999999999999</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>354.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,17 +1927,20 @@
       <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>176</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>160.19999999999999</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>336.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,17 +1953,20 @@
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>174</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>154.4</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>328.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,17 +1979,20 @@
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>198</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>171.6</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>369.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1905,17 +2005,20 @@
       <c r="D28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>197</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>148.19999999999999</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>345.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1928,17 +2031,20 @@
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>181</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>167.4</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>348.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,17 +2057,20 @@
       <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>170</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>165.2</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>335.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,17 +2083,20 @@
       <c r="D31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>181</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>168.8</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>349.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1997,17 +2109,20 @@
       <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>183</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>165.4</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>348.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,17 +2135,20 @@
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>209</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>159</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <v>368</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2043,17 +2161,20 @@
       <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>188</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>159.4</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>347.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2066,17 +2187,20 @@
       <c r="D35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>193</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>163.80000000000001</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>356.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2089,17 +2213,20 @@
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>199</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>172.8</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>371.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2112,17 +2239,20 @@
       <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>199</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>161.19999999999999</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>360.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2135,17 +2265,20 @@
       <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>186</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>150.6</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <v>336.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -2158,17 +2291,20 @@
       <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>224</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>164.6</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>388.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2181,17 +2317,20 @@
       <c r="D40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>175</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <v>178.4</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <v>353.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2204,17 +2343,20 @@
       <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>179</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>164.8</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <v>343.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2227,17 +2369,20 @@
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>176</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>153.4</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <v>329.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2250,17 +2395,20 @@
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>198</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <v>173.2</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <v>371.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2273,17 +2421,20 @@
       <c r="D44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>181</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <v>166.2</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <v>347.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2296,17 +2447,20 @@
       <c r="D45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>171</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <v>157.4</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <v>328.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2319,17 +2473,20 @@
       <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>179</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>168</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="4">
         <v>347</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2342,17 +2499,20 @@
       <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>188</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>164.6</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <v>352.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2365,17 +2525,20 @@
       <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>211</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>161.4</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="5">
         <v>372.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2388,17 +2551,20 @@
       <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="4">
         <v>182</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <v>172.6</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <v>354.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2411,17 +2577,20 @@
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>171</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <v>161.80000000000001</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="5">
         <v>332.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2434,17 +2603,20 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>191</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>165</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="4">
         <v>356</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2457,17 +2629,20 @@
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>170</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <v>170.6</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="5">
         <v>340.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -2480,17 +2655,20 @@
       <c r="D53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="4">
         <v>174</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="5">
         <v>162.19999999999999</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="5">
         <v>336.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -2503,17 +2681,20 @@
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="4">
         <v>186</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>175</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2526,17 +2707,20 @@
       <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="4">
         <v>172</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="5">
         <v>165.8</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="5">
         <v>337.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,17 +2733,20 @@
       <c r="D56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="4">
         <v>183</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <v>163.6</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="5">
         <v>346.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -2572,17 +2759,20 @@
       <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="4">
         <v>191</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="4">
         <v>155</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="4">
         <v>346</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -2595,17 +2785,20 @@
       <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>175</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>166</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="4">
         <v>341</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -2618,17 +2811,20 @@
       <c r="D59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>178</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="5">
         <v>162.6</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="5">
         <v>340.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -2641,17 +2837,20 @@
       <c r="D60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="4">
         <v>179</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="5">
         <v>168.2</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="5">
         <v>347.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -2664,17 +2863,20 @@
       <c r="D61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="4">
         <v>174</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="5">
         <v>159.6</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="5">
         <v>333.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -2687,17 +2889,20 @@
       <c r="D62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="4">
         <v>194</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>153</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="4">
         <v>347</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -2710,17 +2915,20 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="4">
         <v>183</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>172</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="4">
         <v>355</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2733,17 +2941,20 @@
       <c r="D64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="4">
         <v>186</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="5">
         <v>154.19999999999999</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="5">
         <v>340.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -2756,17 +2967,20 @@
       <c r="D65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="4">
         <v>182</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="5">
         <v>164.8</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="5">
         <v>346.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -2779,17 +2993,20 @@
       <c r="D66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="4">
         <v>174</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="5">
         <v>164.8</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="5">
         <v>338.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -2802,17 +3019,20 @@
       <c r="D67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="4">
         <v>171</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="5">
         <v>167.6</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="5">
         <v>338.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -2825,17 +3045,20 @@
       <c r="D68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="4">
         <v>182</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="5">
         <v>170.4</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="5">
         <v>352.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -2848,17 +3071,20 @@
       <c r="D69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="4">
         <v>225</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="5">
         <v>169.4</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <v>394.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -2871,17 +3097,20 @@
       <c r="D70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="4">
         <v>177</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="5">
         <v>168.8</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="5">
         <v>345.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -2894,17 +3123,20 @@
       <c r="D71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="4">
         <v>173</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="5">
         <v>165.2</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="5">
         <v>338.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2917,17 +3149,20 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="4">
         <v>178</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="5">
         <v>158.80000000000001</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="5">
         <v>336.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2940,17 +3175,20 @@
       <c r="D73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="4">
         <v>171</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="4">
         <v>157</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -2963,17 +3201,20 @@
       <c r="D74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="4">
         <v>184</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="5">
         <v>155.4</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="5">
         <v>339.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -2986,17 +3227,20 @@
       <c r="D75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="4">
         <v>178</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="5">
         <v>170.4</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="5">
         <v>348.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -3009,17 +3253,20 @@
       <c r="D76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="4">
         <v>183</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="4">
         <v>166</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="4">
         <v>349</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -3032,17 +3279,20 @@
       <c r="D77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="4">
         <v>185</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="5">
         <v>158.80000000000001</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="5">
         <v>343.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3055,17 +3305,20 @@
       <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="4">
         <v>176</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="5">
         <v>161.19999999999999</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="5">
         <v>337.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -3078,17 +3331,20 @@
       <c r="D79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="4">
         <v>182</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="5">
         <v>150.80000000000001</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="5">
         <v>332.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -3101,17 +3357,20 @@
       <c r="D80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="4">
         <v>209</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="5">
         <v>159.6</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="5">
         <v>368.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -3124,17 +3383,20 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="4">
         <v>187</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="4">
         <v>171</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -3147,17 +3409,20 @@
       <c r="D82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="4">
         <v>187</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="5">
         <v>167.6</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="5">
         <v>354.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -3170,17 +3435,20 @@
       <c r="D83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="4">
         <v>178</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="5">
         <v>165.4</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="5">
         <v>343.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -3193,17 +3461,20 @@
       <c r="D84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="4">
         <v>211</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="4">
         <v>164</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="4">
         <v>375</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -3216,17 +3487,20 @@
       <c r="D85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="4">
         <v>205</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="5">
         <v>168.6</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="5">
         <v>373.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -3239,17 +3513,20 @@
       <c r="D86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="4">
         <v>178</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="5">
         <v>159.6</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="5">
         <v>337.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -3262,17 +3539,20 @@
       <c r="D87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="4">
         <v>199</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="5">
         <v>151.19999999999999</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="5">
         <v>350.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3285,17 +3565,20 @@
       <c r="D88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="4">
         <v>191</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="5">
         <v>151.6</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="5">
         <v>342.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -3308,17 +3591,20 @@
       <c r="D89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="4">
         <v>173</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="4">
         <v>153</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="4">
         <v>326</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -3331,17 +3617,20 @@
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="4">
         <v>174</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="5">
         <v>175.6</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="5">
         <v>349.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -3354,17 +3643,20 @@
       <c r="D91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="4">
         <v>193</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="5">
         <v>160.6</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="5">
         <v>353.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3377,17 +3669,20 @@
       <c r="D92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="4">
         <v>186</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="5">
         <v>178.6</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="5">
         <v>364.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -3400,17 +3695,20 @@
       <c r="D93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="4">
         <v>232</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="4">
         <v>158</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="4">
         <v>390</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -3423,17 +3721,20 @@
       <c r="D94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="4">
         <v>175</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="5">
         <v>152.4</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="5">
         <v>327.39999999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -3446,17 +3747,20 @@
       <c r="D95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="4">
         <v>171</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="5">
         <v>172.8</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="5">
         <v>343.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -3469,17 +3773,20 @@
       <c r="D96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="4">
         <v>196</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="5">
         <v>162.6</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="5">
         <v>358.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -3492,17 +3799,20 @@
       <c r="D97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="4">
         <v>216</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="5">
         <v>167.8</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="5">
         <v>383.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -3515,17 +3825,20 @@
       <c r="D98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="4">
         <v>170</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="5">
         <v>157.80000000000001</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="5">
         <v>327.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -3538,17 +3851,20 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="4">
         <v>173</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="5">
         <v>161.80000000000001</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="5">
         <v>334.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -3561,17 +3877,20 @@
       <c r="D100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="4">
         <v>184</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="5">
         <v>162.80000000000001</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="5">
         <v>346.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -3584,17 +3903,20 @@
       <c r="D101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="4">
         <v>214</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="5">
         <v>149.19999999999999</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="5">
         <v>363.2</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -3607,17 +3929,20 @@
       <c r="D102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="4">
         <v>177</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="5">
         <v>155.19999999999999</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="5">
         <v>332.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -3630,17 +3955,20 @@
       <c r="D103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="4">
         <v>189</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="4">
         <v>169</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -3653,17 +3981,20 @@
       <c r="D104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="4">
         <v>172</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="4">
         <v>163</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -3676,17 +4007,20 @@
       <c r="D105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="4">
         <v>178</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="5">
         <v>158.6</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="5">
         <v>336.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -3699,17 +4033,20 @@
       <c r="D106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="4">
         <v>174</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="5">
         <v>173.6</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="5">
         <v>347.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -3722,17 +4059,20 @@
       <c r="D107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="4">
         <v>191</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="4">
         <v>161</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="4">
         <v>352</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -3745,17 +4085,20 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="4">
         <v>192</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="5">
         <v>169.6</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="5">
         <v>361.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3768,17 +4111,20 @@
       <c r="D109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="4">
         <v>194</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="5">
         <v>165.2</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="5">
         <v>359.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -3791,17 +4137,20 @@
       <c r="D110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="4">
         <v>188</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="5">
         <v>160.6</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="5">
         <v>348.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -3814,17 +4163,20 @@
       <c r="D111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="4">
         <v>184</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="5">
         <v>167.2</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="5">
         <v>351.2</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -3837,17 +4189,20 @@
       <c r="D112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="4">
         <v>217</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="5">
         <v>169.6</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="5">
         <v>386.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H112" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -3860,17 +4215,20 @@
       <c r="D113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="4">
         <v>175</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="5">
         <v>159.19999999999999</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="5">
         <v>334.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H113" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -3883,17 +4241,20 @@
       <c r="D114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="4">
         <v>221</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="5">
         <v>167.8</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="5">
         <v>388.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -3906,17 +4267,20 @@
       <c r="D115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="4">
         <v>176</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="5">
         <v>158.6</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="5">
         <v>334.6</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -3929,17 +4293,20 @@
       <c r="D116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="4">
         <v>185</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="5">
         <v>168.8</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="5">
         <v>353.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -3952,17 +4319,20 @@
       <c r="D117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="4">
         <v>190</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="5">
         <v>168.2</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="5">
         <v>358.2</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H117" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -3975,17 +4345,20 @@
       <c r="D118" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="4">
         <v>183</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="5">
         <v>164.8</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="5">
         <v>347.8</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -3998,17 +4371,20 @@
       <c r="D119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="4">
         <v>202</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="5">
         <v>158.4</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="5">
         <v>360.4</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -4021,17 +4397,20 @@
       <c r="D120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="4">
         <v>224</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F120" s="5">
         <v>160.19999999999999</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="5">
         <v>384.2</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -4044,17 +4423,20 @@
       <c r="D121" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="4">
         <v>183</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="5">
         <v>162.6</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="5">
         <v>345.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -4067,17 +4449,20 @@
       <c r="D122" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="4">
         <v>170</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="5">
         <v>165.2</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="5">
         <v>335.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -4090,17 +4475,20 @@
       <c r="D123" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="4">
         <v>177</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="4">
         <v>169</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123" s="4">
         <v>346</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -4113,17 +4501,20 @@
       <c r="D124" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="4">
         <v>192</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="5">
         <v>167.6</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="5">
         <v>359.6</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H124" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -4136,17 +4527,20 @@
       <c r="D125" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="4">
         <v>175</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="5">
         <v>159.4</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="5">
         <v>334.4</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H125" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -4159,17 +4553,20 @@
       <c r="D126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="4">
         <v>173</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="4">
         <v>159</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G126" s="4">
         <v>332</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -4182,17 +4579,20 @@
       <c r="D127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="4">
         <v>172</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="5">
         <v>155.80000000000001</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="5">
         <v>327.8</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -4205,17 +4605,20 @@
       <c r="D128" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="4">
         <v>198</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="4">
         <v>169</v>
       </c>
-      <c r="G128" s="3">
+      <c r="G128" s="4">
         <v>367</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
@@ -4228,17 +4631,20 @@
       <c r="D129" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="4">
         <v>199</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="5">
         <v>163.6</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="5">
         <v>362.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H129" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -4251,17 +4657,20 @@
       <c r="D130" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="4">
         <v>173</v>
       </c>
-      <c r="F130" s="4">
+      <c r="F130" s="5">
         <v>171.2</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="5">
         <v>344.2</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -4274,17 +4683,20 @@
       <c r="D131" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="4">
         <v>175</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="5">
         <v>171.6</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="5">
         <v>346.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -4297,17 +4709,20 @@
       <c r="D132" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="4">
         <v>197</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F132" s="5">
         <v>162.19999999999999</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="5">
         <v>359.2</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -4320,17 +4735,20 @@
       <c r="D133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="4">
         <v>171</v>
       </c>
-      <c r="F133" s="4">
+      <c r="F133" s="5">
         <v>147.80000000000001</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="5">
         <v>318.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -4343,17 +4761,20 @@
       <c r="D134" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="4">
         <v>205</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="4">
         <v>166</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="4">
         <v>371</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -4366,17 +4787,20 @@
       <c r="D135" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="4">
         <v>180</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="5">
         <v>167.6</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="5">
         <v>347.6</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H135" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -4389,17 +4813,20 @@
       <c r="D136" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="4">
         <v>204</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="5">
         <v>161.80000000000001</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="5">
         <v>365.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H136" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -4412,17 +4839,20 @@
       <c r="D137" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="4">
         <v>181</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="5">
         <v>159.80000000000001</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="5">
         <v>340.8</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -4435,17 +4865,20 @@
       <c r="D138" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="4">
         <v>198</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="5">
         <v>177.2</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="5">
         <v>375.2</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H138" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -4458,17 +4891,20 @@
       <c r="D139" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="4">
         <v>202</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="5">
         <v>151.4</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="5">
         <v>353.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -4481,17 +4917,20 @@
       <c r="D140" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="4">
         <v>186</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="5">
         <v>157.6</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="5">
         <v>343.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -4504,17 +4943,20 @@
       <c r="D141" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="4">
         <v>194</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="5">
         <v>154.4</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="5">
         <v>348.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -4527,17 +4969,20 @@
       <c r="D142" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="4">
         <v>184</v>
       </c>
-      <c r="F142" s="4">
+      <c r="F142" s="5">
         <v>164.2</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="5">
         <v>348.2</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H142" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -4550,17 +4995,20 @@
       <c r="D143" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="4">
         <v>192</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="5">
         <v>179.4</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="5">
         <v>371.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H143" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -4573,17 +5021,20 @@
       <c r="D144" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="4">
         <v>213</v>
       </c>
-      <c r="F144" s="4">
+      <c r="F144" s="5">
         <v>158.6</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="5">
         <v>371.6</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H144" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -4596,17 +5047,20 @@
       <c r="D145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="4">
         <v>196</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="5">
         <v>175.4</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="5">
         <v>371.4</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H145" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -4619,17 +5073,20 @@
       <c r="D146" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="4">
         <v>213</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="5">
         <v>168.8</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="5">
         <v>381.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H146" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -4642,17 +5099,20 @@
       <c r="D147" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="4">
         <v>202</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="5">
         <v>169.4</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="5">
         <v>371.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H147" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -4665,17 +5125,20 @@
       <c r="D148" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="4">
         <v>205</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="4">
         <v>163</v>
       </c>
-      <c r="G148" s="3">
+      <c r="G148" s="4">
         <v>368</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H148" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -4688,17 +5151,20 @@
       <c r="D149" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="4">
         <v>198</v>
       </c>
-      <c r="F149" s="4">
+      <c r="F149" s="5">
         <v>163.4</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="5">
         <v>361.4</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H149" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -4711,17 +5177,20 @@
       <c r="D150" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="4">
         <v>218</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="4">
         <v>170</v>
       </c>
-      <c r="G150" s="3">
+      <c r="G150" s="4">
         <v>388</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H150" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -4734,17 +5203,20 @@
       <c r="D151" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="4">
         <v>215</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151" s="5">
         <v>173.4</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="5">
         <v>388.4</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H151" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
@@ -4757,17 +5229,20 @@
       <c r="D152" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="4">
         <v>204</v>
       </c>
-      <c r="F152" s="4">
+      <c r="F152" s="5">
         <v>160.6</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152" s="5">
         <v>364.6</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H152" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
@@ -4780,17 +5255,20 @@
       <c r="D153" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="4">
         <v>194</v>
       </c>
-      <c r="F153" s="4">
+      <c r="F153" s="5">
         <v>171.4</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="5">
         <v>365.4</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H153" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
@@ -4803,17 +5281,20 @@
       <c r="D154" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="4">
         <v>198</v>
       </c>
-      <c r="F154" s="4">
+      <c r="F154" s="5">
         <v>168.4</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="5">
         <v>366.4</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H154" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -4826,17 +5307,20 @@
       <c r="D155" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="4">
         <v>196</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="4">
         <v>166</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G155" s="4">
         <v>362</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H155" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
@@ -4849,17 +5333,20 @@
       <c r="D156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="4">
         <v>221</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="5">
         <v>155.19999999999999</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="5">
         <v>376.2</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H156" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
@@ -4872,17 +5359,20 @@
       <c r="D157" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="4">
         <v>208</v>
       </c>
-      <c r="F157" s="4">
+      <c r="F157" s="5">
         <v>155.4</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157" s="5">
         <v>363.4</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H157" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -4895,17 +5385,20 @@
       <c r="D158" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="4">
         <v>202</v>
       </c>
-      <c r="F158" s="4">
+      <c r="F158" s="5">
         <v>164.8</v>
       </c>
-      <c r="G158" s="4">
+      <c r="G158" s="5">
         <v>366.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H158" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
@@ -4918,17 +5411,20 @@
       <c r="D159" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="4">
         <v>190</v>
       </c>
-      <c r="F159" s="4">
+      <c r="F159" s="5">
         <v>169.4</v>
       </c>
-      <c r="G159" s="4">
+      <c r="G159" s="5">
         <v>359.4</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H159" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -4941,17 +5437,20 @@
       <c r="D160" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="4">
         <v>189</v>
       </c>
-      <c r="F160" s="4">
+      <c r="F160" s="5">
         <v>174.4</v>
       </c>
-      <c r="G160" s="4">
+      <c r="G160" s="5">
         <v>363.4</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H160" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
@@ -4964,17 +5463,20 @@
       <c r="D161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="4">
         <v>198</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161" s="5">
         <v>176.6</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="5">
         <v>374.6</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H161" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -4987,17 +5489,20 @@
       <c r="D162" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="4">
         <v>208</v>
       </c>
-      <c r="F162" s="4">
+      <c r="F162" s="5">
         <v>170.4</v>
       </c>
-      <c r="G162" s="4">
+      <c r="G162" s="5">
         <v>378.4</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H162" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -5010,17 +5515,20 @@
       <c r="D163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="4">
         <v>189</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="5">
         <v>171.4</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163" s="5">
         <v>360.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H163" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -5033,17 +5541,20 @@
       <c r="D164" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="4">
         <v>207</v>
       </c>
-      <c r="F164" s="4">
+      <c r="F164" s="5">
         <v>167.6</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="5">
         <v>374.6</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H164" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
@@ -5056,17 +5567,20 @@
       <c r="D165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="4">
         <v>234</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F165" s="5">
         <v>171.4</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="5">
         <v>405.4</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H165" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
@@ -5079,17 +5593,20 @@
       <c r="D166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="4">
         <v>221</v>
       </c>
-      <c r="F166" s="4">
+      <c r="F166" s="5">
         <v>163.80000000000001</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="5">
         <v>384.8</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H166" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -5102,17 +5619,20 @@
       <c r="D167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="4">
         <v>194</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="4">
         <v>158</v>
       </c>
-      <c r="G167" s="3">
+      <c r="G167" s="4">
         <v>352</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H167" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
@@ -5125,17 +5645,20 @@
       <c r="D168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="4">
         <v>196</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="4">
         <v>162</v>
       </c>
-      <c r="G168" s="3">
+      <c r="G168" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H168" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
@@ -5148,17 +5671,20 @@
       <c r="D169" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="4">
         <v>203</v>
       </c>
-      <c r="F169" s="4">
+      <c r="F169" s="5">
         <v>171.4</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="5">
         <v>374.4</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H169" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
@@ -5171,17 +5697,20 @@
       <c r="D170" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="4">
         <v>215</v>
       </c>
-      <c r="F170" s="4">
+      <c r="F170" s="5">
         <v>169.6</v>
       </c>
-      <c r="G170" s="4">
+      <c r="G170" s="5">
         <v>384.6</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H170" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
@@ -5194,17 +5723,20 @@
       <c r="D171" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="4">
         <v>225</v>
       </c>
-      <c r="F171" s="4">
+      <c r="F171" s="5">
         <v>168.6</v>
       </c>
-      <c r="G171" s="4">
+      <c r="G171" s="5">
         <v>393.6</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H171" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -5217,17 +5749,20 @@
       <c r="D172" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="4">
         <v>196</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="4">
         <v>170</v>
       </c>
-      <c r="G172" s="3">
+      <c r="G172" s="4">
         <v>366</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H172" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
@@ -5240,17 +5775,20 @@
       <c r="D173" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="4">
         <v>189</v>
       </c>
-      <c r="F173" s="4">
+      <c r="F173" s="5">
         <v>176.8</v>
       </c>
-      <c r="G173" s="4">
+      <c r="G173" s="5">
         <v>365.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H173" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
@@ -5263,17 +5801,20 @@
       <c r="D174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="4">
         <v>221</v>
       </c>
-      <c r="F174" s="4">
+      <c r="F174" s="5">
         <v>164.6</v>
       </c>
-      <c r="G174" s="4">
+      <c r="G174" s="5">
         <v>385.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H174" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>0</v>
       </c>
@@ -5286,17 +5827,20 @@
       <c r="D175" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="4">
         <v>221</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="4">
         <v>148</v>
       </c>
-      <c r="G175" s="3">
+      <c r="G175" s="4">
         <v>369</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H175" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -5309,17 +5853,20 @@
       <c r="D176" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="4">
         <v>200</v>
       </c>
-      <c r="F176" s="4">
+      <c r="F176" s="5">
         <v>162.80000000000001</v>
       </c>
-      <c r="G176" s="4">
+      <c r="G176" s="5">
         <v>362.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H176" s="6">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
@@ -5332,17 +5879,20 @@
       <c r="D177" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="4">
         <v>221</v>
       </c>
-      <c r="F177" s="4">
+      <c r="F177" s="5">
         <v>216.8</v>
       </c>
-      <c r="G177" s="4">
+      <c r="G177" s="5">
         <v>437.8</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H177" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -5355,17 +5905,20 @@
       <c r="D178" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="4">
         <v>218</v>
       </c>
-      <c r="F178" s="4">
+      <c r="F178" s="5">
         <v>214.4</v>
       </c>
-      <c r="G178" s="4">
+      <c r="G178" s="5">
         <v>432.4</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H178" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -5378,17 +5931,20 @@
       <c r="D179" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="4">
         <v>222</v>
       </c>
-      <c r="F179" s="4">
+      <c r="F179" s="5">
         <v>198.2</v>
       </c>
-      <c r="G179" s="4">
+      <c r="G179" s="5">
         <v>420.2</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>0</v>
       </c>
@@ -5401,17 +5957,20 @@
       <c r="D180" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180" s="4">
         <v>236</v>
       </c>
-      <c r="F180" s="4">
+      <c r="F180" s="5">
         <v>198.4</v>
       </c>
-      <c r="G180" s="4">
+      <c r="G180" s="5">
         <v>434.4</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H180" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
@@ -5424,17 +5983,20 @@
       <c r="D181" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="4">
         <v>227</v>
       </c>
-      <c r="F181" s="4">
+      <c r="F181" s="5">
         <v>212.6</v>
       </c>
-      <c r="G181" s="4">
+      <c r="G181" s="5">
         <v>439.6</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H181" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -5447,17 +6009,20 @@
       <c r="D182" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="4">
         <v>224</v>
       </c>
-      <c r="F182" s="4">
+      <c r="F182" s="5">
         <v>199.4</v>
       </c>
-      <c r="G182" s="4">
+      <c r="G182" s="5">
         <v>423.4</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H182" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
@@ -5470,17 +6035,20 @@
       <c r="D183" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183" s="4">
         <v>241</v>
       </c>
-      <c r="F183" s="4">
+      <c r="F183" s="5">
         <v>206.8</v>
       </c>
-      <c r="G183" s="4">
+      <c r="G183" s="5">
         <v>447.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H183" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>0</v>
       </c>
@@ -5493,17 +6061,20 @@
       <c r="D184" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="4">
         <v>220</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="4">
         <v>209</v>
       </c>
-      <c r="G184" s="3">
+      <c r="G184" s="4">
         <v>429</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H184" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5516,17 +6087,20 @@
       <c r="D185" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185" s="4">
         <v>253</v>
       </c>
-      <c r="F185" s="4">
+      <c r="F185" s="5">
         <v>205.4</v>
       </c>
-      <c r="G185" s="4">
+      <c r="G185" s="5">
         <v>458.4</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H185" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>0</v>
       </c>
@@ -5539,17 +6113,20 @@
       <c r="D186" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="4">
         <v>216</v>
       </c>
-      <c r="F186" s="3">
+      <c r="F186" s="4">
         <v>217</v>
       </c>
-      <c r="G186" s="3">
+      <c r="G186" s="4">
         <v>433</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H186" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>0</v>
       </c>
@@ -5562,17 +6139,20 @@
       <c r="D187" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="4">
         <v>229</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="4">
         <v>205</v>
       </c>
-      <c r="G187" s="3">
+      <c r="G187" s="4">
         <v>434</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>0</v>
       </c>
@@ -5585,17 +6165,20 @@
       <c r="D188" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="4">
         <v>234</v>
       </c>
-      <c r="F188" s="4">
+      <c r="F188" s="5">
         <v>216.2</v>
       </c>
-      <c r="G188" s="4">
+      <c r="G188" s="5">
         <v>450.2</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H188" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>0</v>
       </c>
@@ -5608,17 +6191,20 @@
       <c r="D189" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="4">
         <v>227</v>
       </c>
-      <c r="F189" s="5">
+      <c r="F189" s="8">
         <v>206.16</v>
       </c>
-      <c r="G189" s="5">
+      <c r="G189" s="8">
         <v>433.16</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H189" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
@@ -5631,17 +6217,20 @@
       <c r="D190" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="4">
         <v>220</v>
       </c>
-      <c r="F190" s="4">
+      <c r="F190" s="5">
         <v>217.4</v>
       </c>
-      <c r="G190" s="4">
+      <c r="G190" s="5">
         <v>437.4</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H190" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
@@ -5654,17 +6243,20 @@
       <c r="D191" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="4">
         <v>232</v>
       </c>
-      <c r="F191" s="4">
+      <c r="F191" s="5">
         <v>202.2</v>
       </c>
-      <c r="G191" s="4">
+      <c r="G191" s="5">
         <v>434.2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H191" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>0</v>
       </c>
@@ -5677,17 +6269,20 @@
       <c r="D192" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192" s="4">
         <v>234</v>
       </c>
-      <c r="F192" s="5">
+      <c r="F192" s="8">
         <v>202.83</v>
       </c>
-      <c r="G192" s="5">
+      <c r="G192" s="8">
         <v>436.83</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H192" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>0</v>
       </c>
@@ -5700,17 +6295,20 @@
       <c r="D193" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="4">
         <v>234</v>
       </c>
-      <c r="F193" s="4">
+      <c r="F193" s="5">
         <v>211.8</v>
       </c>
-      <c r="G193" s="4">
+      <c r="G193" s="5">
         <v>445.8</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H193" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>0</v>
       </c>
@@ -5723,17 +6321,20 @@
       <c r="D194" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="4">
         <v>226</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="4">
         <v>202</v>
       </c>
-      <c r="G194" s="3">
+      <c r="G194" s="4">
         <v>428</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H194" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
@@ -5746,17 +6347,20 @@
       <c r="D195" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="4">
         <v>219</v>
       </c>
-      <c r="F195" s="5">
+      <c r="F195" s="8">
         <v>224.33</v>
       </c>
-      <c r="G195" s="5">
+      <c r="G195" s="8">
         <v>443.33</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H195" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>0</v>
       </c>
@@ -5769,17 +6373,20 @@
       <c r="D196" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="4">
         <v>224</v>
       </c>
-      <c r="F196" s="4">
+      <c r="F196" s="5">
         <v>215.5</v>
       </c>
-      <c r="G196" s="4">
+      <c r="G196" s="5">
         <v>439.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H196" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>0</v>
       </c>
@@ -5792,17 +6399,20 @@
       <c r="D197" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="4">
         <v>218</v>
       </c>
-      <c r="F197" s="4">
+      <c r="F197" s="5">
         <v>214.8</v>
       </c>
-      <c r="G197" s="4">
+      <c r="G197" s="5">
         <v>432.8</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H197" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>0</v>
       </c>
@@ -5815,17 +6425,20 @@
       <c r="D198" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="4">
         <v>226</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="4">
         <v>202</v>
       </c>
-      <c r="G198" s="3">
+      <c r="G198" s="4">
         <v>428</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H198" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>0</v>
       </c>
@@ -5838,17 +6451,20 @@
       <c r="D199" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="4">
         <v>228</v>
       </c>
-      <c r="F199" s="5">
+      <c r="F199" s="8">
         <v>225.33</v>
       </c>
-      <c r="G199" s="5">
+      <c r="G199" s="8">
         <v>453.33</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H199" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>0</v>
       </c>
@@ -5861,17 +6477,20 @@
       <c r="D200" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="4">
         <v>223</v>
       </c>
-      <c r="F200" s="4">
+      <c r="F200" s="5">
         <v>216.2</v>
       </c>
-      <c r="G200" s="4">
+      <c r="G200" s="5">
         <v>439.2</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H200" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -5884,17 +6503,20 @@
       <c r="D201" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="4">
         <v>238</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="4">
         <v>211</v>
       </c>
-      <c r="G201" s="3">
+      <c r="G201" s="4">
         <v>449</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H201" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>0</v>
       </c>
@@ -5907,17 +6529,20 @@
       <c r="D202" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202" s="4">
         <v>222</v>
       </c>
-      <c r="F202" s="4">
+      <c r="F202" s="5">
         <v>213.2</v>
       </c>
-      <c r="G202" s="4">
+      <c r="G202" s="5">
         <v>435.2</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H202" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>0</v>
       </c>
@@ -5930,17 +6555,20 @@
       <c r="D203" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203" s="4">
         <v>225</v>
       </c>
-      <c r="F203" s="4">
+      <c r="F203" s="5">
         <v>207.6</v>
       </c>
-      <c r="G203" s="4">
+      <c r="G203" s="5">
         <v>432.6</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H203" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>0</v>
       </c>
@@ -5953,17 +6581,20 @@
       <c r="D204" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204" s="4">
         <v>222</v>
       </c>
-      <c r="F204" s="4">
+      <c r="F204" s="5">
         <v>207.2</v>
       </c>
-      <c r="G204" s="4">
+      <c r="G204" s="5">
         <v>429.2</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H204" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>0</v>
       </c>
@@ -5976,17 +6607,20 @@
       <c r="D205" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205" s="4">
         <v>240</v>
       </c>
-      <c r="F205" s="4">
+      <c r="F205" s="5">
         <v>207.8</v>
       </c>
-      <c r="G205" s="4">
+      <c r="G205" s="5">
         <v>447.8</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H205" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>0</v>
       </c>
@@ -5999,17 +6633,20 @@
       <c r="D206" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206" s="4">
         <v>226</v>
       </c>
-      <c r="F206" s="4">
+      <c r="F206" s="5">
         <v>222.5</v>
       </c>
-      <c r="G206" s="4">
+      <c r="G206" s="5">
         <v>448.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H206" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>0</v>
       </c>
@@ -6022,17 +6659,20 @@
       <c r="D207" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207" s="4">
         <v>226</v>
       </c>
-      <c r="F207" s="4">
+      <c r="F207" s="5">
         <v>207.6</v>
       </c>
-      <c r="G207" s="4">
+      <c r="G207" s="5">
         <v>433.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H207" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>0</v>
       </c>
@@ -6045,17 +6685,20 @@
       <c r="D208" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E208" s="4">
         <v>240</v>
       </c>
-      <c r="F208" s="5">
+      <c r="F208" s="8">
         <v>219.83</v>
       </c>
-      <c r="G208" s="5">
+      <c r="G208" s="8">
         <v>459.83</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H208" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>0</v>
       </c>
@@ -6068,17 +6711,20 @@
       <c r="D209" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E209" s="3">
+      <c r="E209" s="4">
         <v>232</v>
       </c>
-      <c r="F209" s="3">
+      <c r="F209" s="4">
         <v>211</v>
       </c>
-      <c r="G209" s="3">
+      <c r="G209" s="4">
         <v>443</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H209" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>0</v>
       </c>
@@ -6091,17 +6737,20 @@
       <c r="D210" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E210" s="3">
+      <c r="E210" s="4">
         <v>234</v>
       </c>
-      <c r="F210" s="4">
+      <c r="F210" s="5">
         <v>204.4</v>
       </c>
-      <c r="G210" s="4">
+      <c r="G210" s="5">
         <v>438.4</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H210" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
@@ -6114,17 +6763,20 @@
       <c r="D211" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211" s="4">
         <v>230</v>
       </c>
-      <c r="F211" s="3">
+      <c r="F211" s="4">
         <v>211</v>
       </c>
-      <c r="G211" s="3">
+      <c r="G211" s="4">
         <v>441</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H211" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>0</v>
       </c>
@@ -6137,17 +6789,20 @@
       <c r="D212" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212" s="4">
         <v>228</v>
       </c>
-      <c r="F212" s="4">
+      <c r="F212" s="5">
         <v>210.2</v>
       </c>
-      <c r="G212" s="4">
+      <c r="G212" s="5">
         <v>438.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H212" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -6160,17 +6815,20 @@
       <c r="D213" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213" s="4">
         <v>235</v>
       </c>
-      <c r="F213" s="4">
+      <c r="F213" s="5">
         <v>201.4</v>
       </c>
-      <c r="G213" s="4">
+      <c r="G213" s="5">
         <v>436.4</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H213" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>0</v>
       </c>
@@ -6183,17 +6841,20 @@
       <c r="D214" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214" s="4">
         <v>231</v>
       </c>
-      <c r="F214" s="4">
+      <c r="F214" s="5">
         <v>214.8</v>
       </c>
-      <c r="G214" s="4">
+      <c r="G214" s="5">
         <v>445.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H214" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>0</v>
       </c>
@@ -6206,17 +6867,20 @@
       <c r="D215" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E215" s="4">
         <v>226</v>
       </c>
-      <c r="F215" s="4">
+      <c r="F215" s="5">
         <v>217.6</v>
       </c>
-      <c r="G215" s="4">
+      <c r="G215" s="5">
         <v>443.6</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H215" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>0</v>
       </c>
@@ -6229,17 +6893,20 @@
       <c r="D216" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E216" s="4">
         <v>237</v>
       </c>
-      <c r="F216" s="4">
+      <c r="F216" s="5">
         <v>207.8</v>
       </c>
-      <c r="G216" s="4">
+      <c r="G216" s="5">
         <v>444.8</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H216" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>0</v>
       </c>
@@ -6252,17 +6919,20 @@
       <c r="D217" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E217" s="4">
         <v>230</v>
       </c>
-      <c r="F217" s="4">
+      <c r="F217" s="5">
         <v>201.2</v>
       </c>
-      <c r="G217" s="4">
+      <c r="G217" s="5">
         <v>431.2</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H217" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -6275,17 +6945,20 @@
       <c r="D218" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E218" s="4">
         <v>237</v>
       </c>
-      <c r="F218" s="5">
+      <c r="F218" s="8">
         <v>230.17</v>
       </c>
-      <c r="G218" s="5">
+      <c r="G218" s="8">
         <v>467.17</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H218" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
@@ -6298,17 +6971,20 @@
       <c r="D219" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E219" s="3">
+      <c r="E219" s="4">
         <v>241</v>
       </c>
-      <c r="F219" s="4">
+      <c r="F219" s="5">
         <v>210.8</v>
       </c>
-      <c r="G219" s="4">
+      <c r="G219" s="5">
         <v>451.8</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H219" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>0</v>
       </c>
@@ -6321,17 +6997,20 @@
       <c r="D220" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E220" s="4">
         <v>235</v>
       </c>
-      <c r="F220" s="3">
+      <c r="F220" s="4">
         <v>212</v>
       </c>
-      <c r="G220" s="3">
+      <c r="G220" s="4">
         <v>447</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H220" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>0</v>
       </c>
@@ -6344,17 +7023,20 @@
       <c r="D221" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221" s="4">
         <v>226</v>
       </c>
-      <c r="F221" s="5">
+      <c r="F221" s="8">
         <v>210.66</v>
       </c>
-      <c r="G221" s="5">
+      <c r="G221" s="8">
         <v>436.66</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H221" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>0</v>
       </c>
@@ -6367,17 +7049,20 @@
       <c r="D222" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222" s="4">
         <v>219</v>
       </c>
-      <c r="F222" s="4">
+      <c r="F222" s="5">
         <v>222.8</v>
       </c>
-      <c r="G222" s="4">
+      <c r="G222" s="5">
         <v>441.8</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H222" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>0</v>
       </c>
@@ -6390,17 +7075,20 @@
       <c r="D223" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E223" s="3">
+      <c r="E223" s="4">
         <v>234</v>
       </c>
-      <c r="F223" s="5">
+      <c r="F223" s="8">
         <v>214.83</v>
       </c>
-      <c r="G223" s="5">
+      <c r="G223" s="8">
         <v>448.83</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H223" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>0</v>
       </c>
@@ -6413,17 +7101,20 @@
       <c r="D224" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E224" s="3">
+      <c r="E224" s="4">
         <v>223</v>
       </c>
-      <c r="F224" s="4">
+      <c r="F224" s="5">
         <v>205.6</v>
       </c>
-      <c r="G224" s="4">
+      <c r="G224" s="5">
         <v>428.6</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H224" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>0</v>
       </c>
@@ -6436,14 +7127,17 @@
       <c r="D225" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E225" s="3">
+      <c r="E225" s="4">
         <v>229</v>
       </c>
-      <c r="F225" s="3">
+      <c r="F225" s="4">
         <v>202</v>
       </c>
-      <c r="G225" s="3">
+      <c r="G225" s="4">
         <v>431</v>
+      </c>
+      <c r="H225" s="7">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
